--- a/pkg_recommendation/github/user_queries_github.xlsx
+++ b/pkg_recommendation/github/user_queries_github.xlsx
@@ -2967,10 +2967,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" zoomScaleSheetLayoutView="60" topLeftCell="V82" workbookViewId="0">
-      <selection activeCell="X103" sqref="X103"/>
+      <selection activeCell="Z103" sqref="Z103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="59" customHeight="1"/>
@@ -8602,6 +8602,12 @@
       <c r="Z102">
         <f>AVERAGE(Z2:Z101)</f>
         <v>541.045454545455</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="26:26">
+      <c r="Z103">
+        <f>STDEV(Z2:Z97)</f>
+        <v>82.3768791375967</v>
       </c>
     </row>
   </sheetData>
